--- a/text/jxu.xlsx
+++ b/text/jxu.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1320">
   <si>
     <t>beeped_sen_content</t>
   </si>
@@ -2078,13 +2078,1972 @@
   </si>
   <si>
     <t>putzt</t>
+  </si>
+  <si>
+    <t>Martin geht in ein Reisebüro und lässt sich von einem Angestellten beraten.</t>
+  </si>
+  <si>
+    <t>Familie Müller bucht einen Flug nach die Mittelmeerinsel Mallorca.</t>
+  </si>
+  <si>
+    <t>bucht</t>
+  </si>
+  <si>
+    <t>Ein Arzt behandelt kranke Leute in einer Praxis oder im Krankenhaus.</t>
+  </si>
+  <si>
+    <t>behandelt</t>
+  </si>
+  <si>
+    <t>Ein Bauer hält auf seinem Tiere wie Kühe, Hühner oder Schweine.</t>
+  </si>
+  <si>
+    <t>Paul isst gerne Kartoffelsuppe.</t>
+  </si>
+  <si>
+    <t>isst</t>
+  </si>
+  <si>
+    <t>Ich kann mich noch gut an meinen ersten Schultag erinnern.</t>
+  </si>
+  <si>
+    <t>Ich kann nicht mit dem Auto fahren.</t>
+  </si>
+  <si>
+    <t>Was wünschst du dir zum Geburtstag?</t>
+  </si>
+  <si>
+    <t>wünschst</t>
+  </si>
+  <si>
+    <t>Marco hat gestern einen Brief an seine Eltern geschrieben.</t>
+  </si>
+  <si>
+    <t>geschrieben</t>
+  </si>
+  <si>
+    <t>Marco möchte den Brief zur Post bringen.</t>
+  </si>
+  <si>
+    <t>Muss ich mit dem Bus fahren oder kann ich zu Fuß gehen?</t>
+  </si>
+  <si>
+    <t>Sie gehen diese Straße geradeaus und biegen an der ersten Kreuzung rechts ab.</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>Dort an der Ampel kannst du die Straße überqueren.</t>
+  </si>
+  <si>
+    <t>überqueren</t>
+  </si>
+  <si>
+    <t>Der Regenbogen besteht aus vielen Farben.</t>
+  </si>
+  <si>
+    <t>In der Vergangenheit war Berlin in zwei Hälften geteilt.</t>
+  </si>
+  <si>
+    <t>geteilt</t>
+  </si>
+  <si>
+    <t>Die sieben kleinen Äpfel wiegen zwei Kilo.</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>An der Kasse bezahlen wir mit Bankomatkarte.</t>
+  </si>
+  <si>
+    <t>Zu Ostern gibt es für Kinder Ostereier und Süßigkeiten.</t>
+  </si>
+  <si>
+    <t>gibt</t>
+  </si>
+  <si>
+    <t>Morgen schreibe ich eine Schularbeit.</t>
+  </si>
+  <si>
+    <t>schreibe</t>
+  </si>
+  <si>
+    <t>Morgens stehe ich um kurz vor sieben Uhr auf.</t>
+  </si>
+  <si>
+    <t>stehe</t>
+  </si>
+  <si>
+    <t>Der Unterricht dauert meistens bis um dreizehn Uhr.</t>
+  </si>
+  <si>
+    <t>Wir planen eine Route durch das ganze Land, von Westen bis Osten und von Süden bis Norden.</t>
+  </si>
+  <si>
+    <t>Wir entschieden uns dafür, mit dem Flugzeug nach Stockholm zu fliegen.</t>
+  </si>
+  <si>
+    <t>entschieden</t>
+  </si>
+  <si>
+    <t>Ich heiße Tibor, wie ist dein Name?</t>
+  </si>
+  <si>
+    <t>heiße</t>
+  </si>
+  <si>
+    <t>Florian habe so lange Beine, deshalb trage er nur lange Hosen.</t>
+  </si>
+  <si>
+    <t>trage</t>
+  </si>
+  <si>
+    <t>Die Uhr zeigt den zwölf Stunden Rhythmus.</t>
+  </si>
+  <si>
+    <t>zeigt</t>
+  </si>
+  <si>
+    <t>Eine Stunde unterteilt man in Minuten und Sekunden.</t>
+  </si>
+  <si>
+    <t>unterteilt</t>
+  </si>
+  <si>
+    <t>Wie lange benötigt die Erde, um die Sonne zu umrunden?</t>
+  </si>
+  <si>
+    <t>benötigt</t>
+  </si>
+  <si>
+    <t>In Europa gibt es vier Jahrezeiten, am Zentralafrika nur eine.</t>
+  </si>
+  <si>
+    <t>Die äußeren Planeten bestehen aus Gas.</t>
+  </si>
+  <si>
+    <t>Wenn es am Sonntag Morgen regnet, bleibt Franz den ganzen Tag im Bett.</t>
+  </si>
+  <si>
+    <t>bleibt</t>
+  </si>
+  <si>
+    <t>Ich sollte aufstehen, wenn morgens der Wecker geläutet.</t>
+  </si>
+  <si>
+    <t>geläutet</t>
+  </si>
+  <si>
+    <t>Vater trinkt morgens eine Tasse Kaffee.</t>
+  </si>
+  <si>
+    <t>trinkt</t>
+  </si>
+  <si>
+    <t>Susi isst zum Frühstück gerne ein weiches Ei.</t>
+  </si>
+  <si>
+    <t>Sebastian mag lieber ein schwarzes Brot mit Butter und Marmelade.</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>Bitte gib mir ein Stück Kuchen und eine Schale mit Obst.</t>
+  </si>
+  <si>
+    <t>gib</t>
+  </si>
+  <si>
+    <t>Sonja nimmt ihren Tee mit Milch und Zucker.</t>
+  </si>
+  <si>
+    <t>Linda trinkt lieber eine heiße Schokolade.</t>
+  </si>
+  <si>
+    <t>Sam trinkt gerne eine Tasse Kaffee mit einem Stück Kuchen</t>
+  </si>
+  <si>
+    <t>Bitten aufpassen, zu viel Zucker schadet der Gesundheit.</t>
+  </si>
+  <si>
+    <t>Leo ist schon zur Arbeit gegangen.</t>
+  </si>
+  <si>
+    <t>gegangen</t>
+  </si>
+  <si>
+    <t>Ist der Tisch schon gedeckt?</t>
+  </si>
+  <si>
+    <t>gedeckt</t>
+  </si>
+  <si>
+    <t>Bitte waschen Sie Ihre Hände mit Seife.</t>
+  </si>
+  <si>
+    <t>waschen</t>
+  </si>
+  <si>
+    <t>In der Küche steht noch das schumutzige Geschirr vom Frühstück.</t>
+  </si>
+  <si>
+    <t>steht</t>
+  </si>
+  <si>
+    <t>Wer soll den Geschirrspüler einräumen?</t>
+  </si>
+  <si>
+    <t>einräumen</t>
+  </si>
+  <si>
+    <t>Meine Mutter kocht heute Mittag nicht, wir gehen aus zum Essen.</t>
+  </si>
+  <si>
+    <t>In der Schule lernen die Kinder lesen, schreiben und rechnen.</t>
+  </si>
+  <si>
+    <t>Josi hat letzte Nacht nur wenig Schlaf gefunden.</t>
+  </si>
+  <si>
+    <t>gefunden</t>
+  </si>
+  <si>
+    <t>Meine kleine Schwester spielt draußen im Garten.</t>
+  </si>
+  <si>
+    <t>spielt</t>
+  </si>
+  <si>
+    <t>Bitte schließ die Tür!</t>
+  </si>
+  <si>
+    <t>schließ</t>
+  </si>
+  <si>
+    <t>Ich habe eine verletzte Hand, kannst du bitte die Knöpfe meiner Jacke öffnen?</t>
+  </si>
+  <si>
+    <t>Ich bin krank und bleibe heute im Bett.</t>
+  </si>
+  <si>
+    <t>bleibe</t>
+  </si>
+  <si>
+    <t>Leider sieht Ihr Bein gebrochen aus, aber das Knie ist okay.</t>
+  </si>
+  <si>
+    <t>sieht</t>
+  </si>
+  <si>
+    <t>Melanie sieht so schlecht, sie braucht eine Brille.</t>
+  </si>
+  <si>
+    <t>braucht</t>
+  </si>
+  <si>
+    <t>Oma hat Probleme mit den Zähnen, aber sie fürchtet sich vorm Zahnarzt.</t>
+  </si>
+  <si>
+    <t>fürchtet</t>
+  </si>
+  <si>
+    <t>Fabienne ist Ärztin und arbeitet im Krankenhaus.</t>
+  </si>
+  <si>
+    <t>Hans arbeitet in einer Schule, er ist der Direktor.</t>
+  </si>
+  <si>
+    <t>Deine Haare sind so kurz, warst du beim Friseur?</t>
+  </si>
+  <si>
+    <t>warst</t>
+  </si>
+  <si>
+    <t>Wir brauchen Obst und Gemüse, ich gehe auf den Markt.</t>
+  </si>
+  <si>
+    <t>Beim Bäcker gibt es täglich frisches Brot.</t>
+  </si>
+  <si>
+    <t>Bitte zahlen Sie sofort, wir nehmen keinen Kredit.</t>
+  </si>
+  <si>
+    <t>zahlen, nehmen</t>
+  </si>
+  <si>
+    <t>Sie schulden mir noch Geld von gestern.</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>Ich werde Ihnen das Kapital mit Zinsen zurückgegeben.</t>
+  </si>
+  <si>
+    <t>zurückgegeben</t>
+  </si>
+  <si>
+    <t>Simon malt riesige Bilder.</t>
+  </si>
+  <si>
+    <t>malt</t>
+  </si>
+  <si>
+    <t>Er bevorzugt die Farben gelb, orange und rot.</t>
+  </si>
+  <si>
+    <t>bevorzugt</t>
+  </si>
+  <si>
+    <t>Flora hat Musik studiert und dirigiert jetzt das Orchester.</t>
+  </si>
+  <si>
+    <t>studiert</t>
+  </si>
+  <si>
+    <t>In Wien tanzt man gerne Walzer.</t>
+  </si>
+  <si>
+    <t>tanzt</t>
+  </si>
+  <si>
+    <t>Ein König wohnt in einem Schloss.</t>
+  </si>
+  <si>
+    <t>wohnt</t>
+  </si>
+  <si>
+    <t>Moni hat eine Fahrkarte für den Zug nach Salzburg gekauft.</t>
+  </si>
+  <si>
+    <t>gekauft</t>
+  </si>
+  <si>
+    <t>Ich nehme lieber den Bus, da gibt es nicht so viele Haltestellen.</t>
+  </si>
+  <si>
+    <t>Eric ist ein guter Fahrer, obwohl er gerade erst seinen Führerschein gemacht hat.</t>
+  </si>
+  <si>
+    <t>gemacht</t>
+  </si>
+  <si>
+    <t>Wollen wir morgen zu Hause bleiben oder uns einen Film im Kino ansehen?</t>
+  </si>
+  <si>
+    <t>ansehen</t>
+  </si>
+  <si>
+    <t>Wohin fahrt ihr auf Urlaub?</t>
+  </si>
+  <si>
+    <t>fahrt</t>
+  </si>
+  <si>
+    <t>Floras Eltern machen eine Kreuzfahrt mit einem riesigen Schiff auf dem Meer.</t>
+  </si>
+  <si>
+    <t>Toni fliegt mit dem Flugzeug nach.</t>
+  </si>
+  <si>
+    <t>Linda packt immer viel zu viele Kleidung in ihren Koffer.</t>
+  </si>
+  <si>
+    <t>packt</t>
+  </si>
+  <si>
+    <t>Ich packe nur leichte Kleidung ein, weil der Koffer zu schwer ist.</t>
+  </si>
+  <si>
+    <t>packe</t>
+  </si>
+  <si>
+    <t>Wenn es kalt wird, trage ich mir einen warmen Pullover.</t>
+  </si>
+  <si>
+    <t>Es ist Zeit, diesen Ort zu verlassen.</t>
+  </si>
+  <si>
+    <t>verlassen</t>
+  </si>
+  <si>
+    <t>Tomas fischt im Fluss und wird Fisch zum Abendessen essen.</t>
+  </si>
+  <si>
+    <t>fischt</t>
+  </si>
+  <si>
+    <t>In den großen Ferien wandern wir gerne in den Bergen.</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>Vater trägt den großen Rucksack auf dem Rücken.</t>
+  </si>
+  <si>
+    <t>trägt</t>
+  </si>
+  <si>
+    <t>Wenn genug Schnee liegt, fahren sie gerne Schi.</t>
+  </si>
+  <si>
+    <t>Die Taxifahrer sollten während Mitternacht nicht hupen.</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>Am Strand spielt ständig laute Musik.</t>
+  </si>
+  <si>
+    <t>Morgen machen wir einen Ausflug in den Schönbrunner Tiergarten.</t>
+  </si>
+  <si>
+    <t>Hier gibt es viele Tiere, die auf verschiedenen Kontinenten leben.</t>
+  </si>
+  <si>
+    <t>Die friedlichen Pandas kommen aus China.</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>In der Arktis leben gefährliche Eisbären.</t>
+  </si>
+  <si>
+    <t>Pinguine bewohnen die Antarktis, wie auch Robben und große Seelöwen.</t>
+  </si>
+  <si>
+    <t>bewohnen</t>
+  </si>
+  <si>
+    <t>Zu den hundeartigen Tieren, die in Österreich leben, gehört der Wolf.</t>
+  </si>
+  <si>
+    <t>gehört</t>
+  </si>
+  <si>
+    <t>Im botanischen Garten sehen wir exotische Pflanzen.</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>Bananen wachsen auf Palmen.</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>Der Sturm entlaubte alle Bäume in unserem Garten.</t>
+  </si>
+  <si>
+    <t>entlaubte</t>
+  </si>
+  <si>
+    <t>Am Ostersonntag suchen die Kinder bunte Eier, die ihre Eltern verstecken.</t>
+  </si>
+  <si>
+    <t>verstecken</t>
+  </si>
+  <si>
+    <t>Während der Weihnachtszeit gibt es unter dem Weihnachtsbaum Geschenke für die Kinder.</t>
+  </si>
+  <si>
+    <t>Ich warte seit drei Tagen auf Sie, wo waren Sie denn?</t>
+  </si>
+  <si>
+    <t>warte</t>
+  </si>
+  <si>
+    <t>Du kannst dich nicht entscheiden, da du keine Wahl hast.</t>
+  </si>
+  <si>
+    <t>entscheiden,</t>
+  </si>
+  <si>
+    <t>Ich habe den schrecklichen Verdacht, dass Hans das Geld gestohlen hat.</t>
+  </si>
+  <si>
+    <t>gestohlen</t>
+  </si>
+  <si>
+    <t>Er sieht endlich ein Licht am Ende des Tunnels.</t>
+  </si>
+  <si>
+    <t>Keine Sorge, Du trägst daran keine Schuld.</t>
+  </si>
+  <si>
+    <t>trägst</t>
+  </si>
+  <si>
+    <t>Eltern kümmern sich um ihre Kinder.</t>
+  </si>
+  <si>
+    <t>Die Augen meines Sohnes glänzten, als er das Geschenk sah.</t>
+  </si>
+  <si>
+    <t>glänzten</t>
+  </si>
+  <si>
+    <t>Das Lagerfeuer brennt seit zwei Stunden.</t>
+  </si>
+  <si>
+    <t>brennt</t>
+  </si>
+  <si>
+    <t>In der Therapie lernte er, mit Angst und Stress umzugehen.</t>
+  </si>
+  <si>
+    <t>umzugehen</t>
+  </si>
+  <si>
+    <t>Ich kann es kaum abwarten, das Video meiner Hochzeit zu sehen.</t>
+  </si>
+  <si>
+    <t>abwarten</t>
+  </si>
+  <si>
+    <t>Alle Wege führen nach Rom.</t>
+  </si>
+  <si>
+    <t>In diesem Krankenhaus werden viele Patienten behandelt.</t>
+  </si>
+  <si>
+    <t>Er wurde zum Leiter der Abteilung befördert.</t>
+  </si>
+  <si>
+    <t>befördert</t>
+  </si>
+  <si>
+    <t>Du kannst den Hund streicheln, er wird dich nicht beißen.</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>Er hat seine Katze oft mit Fisch gefüttert.</t>
+  </si>
+  <si>
+    <t>gefüttert</t>
+  </si>
+  <si>
+    <t>Der Mitarbeiter wurde für seinen Fleiß und seine harte Arbeit belohnt.</t>
+  </si>
+  <si>
+    <t>belohnt</t>
+  </si>
+  <si>
+    <t>Die Flasche steht auf dem Tisch.</t>
+  </si>
+  <si>
+    <t>Die kluge Konstruktion schützt das Haus vor Windschäden.</t>
+  </si>
+  <si>
+    <t>schützt</t>
+  </si>
+  <si>
+    <t>Die Erklärungen des Lehrers haben absolut Sinn ergeben.</t>
+  </si>
+  <si>
+    <t>ergeben</t>
+  </si>
+  <si>
+    <t>Das Eingreifen des Lehrers beendete den Streit.</t>
+  </si>
+  <si>
+    <t>Das Armbanduhr ist aus Edelstahl und rostet nicht.</t>
+  </si>
+  <si>
+    <t>rostet</t>
+  </si>
+  <si>
+    <t>Meine dicke Katze muss abnehmen.</t>
+  </si>
+  <si>
+    <t>abnehmen</t>
+  </si>
+  <si>
+    <t>Ihr Regenschirm schützt Sie vor dem Regen.</t>
+  </si>
+  <si>
+    <t>Die Bergarbeiter fuhren jeden Tag in die Grube.</t>
+  </si>
+  <si>
+    <t>fuhren</t>
+  </si>
+  <si>
+    <t>Jeder Topf kommt mit seinen Deckel beim Einkaufen.</t>
+  </si>
+  <si>
+    <t>kommt</t>
+  </si>
+  <si>
+    <t>Wir waschen unsere Hände täglich aus Hygiene.</t>
+  </si>
+  <si>
+    <t>Auf Regen folgt Sonnenschein.</t>
+  </si>
+  <si>
+    <t>folgt</t>
+  </si>
+  <si>
+    <t>Nach dem großen Essen war mein Hunger gestillt.</t>
+  </si>
+  <si>
+    <t>gestillt</t>
+  </si>
+  <si>
+    <t>Wer im Glashaus sitzt, soll nicht mit Steinen werfen.</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>Ich möchte dich nicht täuschen, also werde ich dir die Wahrheit sagen.</t>
+  </si>
+  <si>
+    <t>täuschen</t>
+  </si>
+  <si>
+    <t>Der Zahnarzt untersuchte meine Zunge genau.</t>
+  </si>
+  <si>
+    <t>untersuchte</t>
+  </si>
+  <si>
+    <t>Korn wird zur Herstellung von Mehl verwendet.</t>
+  </si>
+  <si>
+    <t>verwendet.</t>
+  </si>
+  <si>
+    <t>Das Friedensabkommen beendete den Krieg.</t>
+  </si>
+  <si>
+    <t>Früh übt sich, wer ein Meister werden will.</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>Aus Fehlern lernt man.</t>
+  </si>
+  <si>
+    <t>lernt</t>
+  </si>
+  <si>
+    <t>Meine Großtante ist letztes Jahr gestorben, und sie haben sie neben ihrem Mann begraben.</t>
+  </si>
+  <si>
+    <t>begraben</t>
+  </si>
+  <si>
+    <t>Fortschritt und Naturschutz sollten kein Gegensatz sein.</t>
+  </si>
+  <si>
+    <t>sein</t>
+  </si>
+  <si>
+    <t>Manche Eltern kaufen ihren Töchtern gerne rosa Kleider.</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>Der Dieb wurde für sein Verbrechen bestraft.</t>
+  </si>
+  <si>
+    <t>bestraft</t>
+  </si>
+  <si>
+    <t>Das Herz pumpt Blut durch den Körper.</t>
+  </si>
+  <si>
+    <t>pumpt</t>
+  </si>
+  <si>
+    <t>Ihre Freundlichkeit gab mir ein Gefühl von Sicherheit.</t>
+  </si>
+  <si>
+    <t>gab</t>
+  </si>
+  <si>
+    <t>Das Auge ermöglicht Tieren das Sehen.</t>
+  </si>
+  <si>
+    <t>ermöglicht</t>
+  </si>
+  <si>
+    <t>Die Suppe wird nicht so heiß gegessen, wie sie gekocht wird.</t>
+  </si>
+  <si>
+    <t>gegessen</t>
+  </si>
+  <si>
+    <t>Der Ton macht die Musik.</t>
+  </si>
+  <si>
+    <t>macht</t>
+  </si>
+  <si>
+    <t>Der frühe Vogel fängt den Wurm.</t>
+  </si>
+  <si>
+    <t>fängt</t>
+  </si>
+  <si>
+    <t>Rom wurde nicht an einem Tag erbaut.</t>
+  </si>
+  <si>
+    <t>erbaut</t>
+  </si>
+  <si>
+    <t>Alexander Bell hat das Telefon erfunden.</t>
+  </si>
+  <si>
+    <t>erfunden</t>
+  </si>
+  <si>
+    <t>Aber Sarah badet lieber abends in der Wanne.</t>
+  </si>
+  <si>
+    <t>badet</t>
+  </si>
+  <si>
+    <t>Alchemisten haben geglaubt, sie können Gold herstellen.</t>
+  </si>
+  <si>
+    <t>herstellen</t>
+  </si>
+  <si>
+    <t>Am Anfang sind die Brüder Wright mit Gleitflugzeugen geflogen.</t>
+  </si>
+  <si>
+    <t>An der nächsten Kreuzung müssen Sie rechts abbiegen.</t>
+  </si>
+  <si>
+    <t>abbiegen</t>
+  </si>
+  <si>
+    <t>Araber lieben es, auf den Märkten zu handeln.</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>Auf Lavaerde wachsen sehr gute Weintrauben.</t>
+  </si>
+  <si>
+    <t>Hans spielt gerne mit Lego.</t>
+  </si>
+  <si>
+    <t>Lisa tanzt im Ballett.</t>
+  </si>
+  <si>
+    <t>Bald wird in den USA ein neuer Präsident gewählt.</t>
+  </si>
+  <si>
+    <t>gewählt</t>
+  </si>
+  <si>
+    <t>Bananen finden wir in der Obstabteilung.</t>
+  </si>
+  <si>
+    <t>Bei dem Gewitter letzte Woche hat der Blitz in ein Boot eingeschlagen.</t>
+  </si>
+  <si>
+    <t>eingeschlagen</t>
+  </si>
+  <si>
+    <t>Bevor es Autos gab, sind die Leute mit der Eisenbahn gefahren.</t>
+  </si>
+  <si>
+    <t>gefahren</t>
+  </si>
+  <si>
+    <t>Bevor man ein Haus baut, zeichnet der Architekt einen Plan.</t>
+  </si>
+  <si>
+    <t>zeichnet</t>
+  </si>
+  <si>
+    <t>Bitte bilden Sie einfache Sätze.</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>Bitte nimm meinen Mantel mit in die Garderobe.</t>
+  </si>
+  <si>
+    <t>nimm</t>
+  </si>
+  <si>
+    <t>Bitte zahlen Sie an Kasse Nummer Zwei.</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>Bitte zerstören Sie nicht die Natur!</t>
+  </si>
+  <si>
+    <t>zerstören</t>
+  </si>
+  <si>
+    <t>Bitte zieh deinen Mantel an, es ist kalt draußen.</t>
+  </si>
+  <si>
+    <t>zieh</t>
+  </si>
+  <si>
+    <t>Charles Darwin hat die Natur erforscht.</t>
+  </si>
+  <si>
+    <t>erforscht</t>
+  </si>
+  <si>
+    <t>Chris hat Zahnschmerzen, aber er fürchtet sich vor dem Zahnarzt.</t>
+  </si>
+  <si>
+    <t>Christoph Kolumbus hat am vierzehn zweiundneunzig Amerika entdeckt.</t>
+  </si>
+  <si>
+    <t>entdeckt</t>
+  </si>
+  <si>
+    <t>Damit Pflanzen gut wachsen können, brauchen die meisten viel Wasser.</t>
+  </si>
+  <si>
+    <t>Danke für den Smoothie, den du mir gemacht hast.</t>
+  </si>
+  <si>
+    <t>Dieses Brot ist maschinell hergestellt worden.</t>
+  </si>
+  <si>
+    <t>Das Brot vom Bäcker schmeckt viel besser.</t>
+  </si>
+  <si>
+    <t>schmeckt</t>
+  </si>
+  <si>
+    <t>Das Essen steht pünktlich um zwölf Uhr auf dem Tisch.</t>
+  </si>
+  <si>
+    <t>Das Fleisch wird klein geschnitten, und dann in der Pfanne gebraten.</t>
+  </si>
+  <si>
+    <t>Das Zimmer kostet ein Hundert Euro pro Nacht.</t>
+  </si>
+  <si>
+    <t>Das verstehe ich nicht, was meinst du damit?</t>
+  </si>
+  <si>
+    <t>meinst</t>
+  </si>
+  <si>
+    <t>Denk nicht so viel darüber nach, das bringt nichts.</t>
+  </si>
+  <si>
+    <t>Der Mond umkreist die Erde in ungefähr achtundzwanzig Tagen.</t>
+  </si>
+  <si>
+    <t>umkreist</t>
+  </si>
+  <si>
+    <t>Der Schmied klopft immer wieder mit dem Hammer auf das heiße Eisen.</t>
+  </si>
+  <si>
+    <t>klopft</t>
+  </si>
+  <si>
+    <t>Der moderne Mensch ist ursprünglich aus Afrika gekommen.</t>
+  </si>
+  <si>
+    <t>gekommen</t>
+  </si>
+  <si>
+    <t>Die Brille bekommst du beim Optiker, dann kannst du wieder perfekt sehen.</t>
+  </si>
+  <si>
+    <t>Die Eisberge lösen sich auf, und der Wasserpegel steigt.</t>
+  </si>
+  <si>
+    <t>steigt</t>
+  </si>
+  <si>
+    <t>Die Häuser der Inselbewohner versinken im Meer.</t>
+  </si>
+  <si>
+    <t>versinken</t>
+  </si>
+  <si>
+    <t>Die Kinder streiten sich um ein Spielzeug.</t>
+  </si>
+  <si>
+    <t>streiten</t>
+  </si>
+  <si>
+    <t>Die Meere sollte man nicht so leer fischen.</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>Die Mutter rührt in ihren Töpfen und Pfannen.</t>
+  </si>
+  <si>
+    <t>rührt</t>
+  </si>
+  <si>
+    <t>Die Schneiderin näht Kleid für den Maturaball.</t>
+  </si>
+  <si>
+    <t>näht</t>
+  </si>
+  <si>
+    <t>Die Tulpen stammen eigentlich aus Persien und der Türkei.</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>Die Zähne werden geputzt und der Bart rasiert.</t>
+  </si>
+  <si>
+    <t>rasiert</t>
+  </si>
+  <si>
+    <t>Die Ärztin hat Andrea ein Rezept ausgestellt.</t>
+  </si>
+  <si>
+    <t>Dieser Supermarkt hat nur am Tage geöffnet.</t>
+  </si>
+  <si>
+    <t>geöffnet</t>
+  </si>
+  <si>
+    <t>Wenn mein Haar schmutzig ist, bürste ich es.</t>
+  </si>
+  <si>
+    <t>bürste</t>
+  </si>
+  <si>
+    <t>Doris ist leider zu spät gekommen, die Apotheke hat heute schon geschlossen.</t>
+  </si>
+  <si>
+    <t>geschlossen</t>
+  </si>
+  <si>
+    <t>Durch die Klimaveränderung steigen die Temperaturen auf der Erde.</t>
+  </si>
+  <si>
+    <t>steigen</t>
+  </si>
+  <si>
+    <t>Durch ein Fernrohr kann man manchmal sogar die Venus sehen.</t>
+  </si>
+  <si>
+    <t>Ein Gewitter besteht aus Blitz und Donner.</t>
+  </si>
+  <si>
+    <t>Ein Regenbogen besteht aus vielen Farben.</t>
+  </si>
+  <si>
+    <t>Einige NGOs schützen die Rechte der Menschen.</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>Entweder hat mir jemand die Geldtasche gestohlen oder ich habe sie verloren.</t>
+  </si>
+  <si>
+    <t>verloren</t>
+  </si>
+  <si>
+    <t>Er verkauft Herren- und Damenschuhe.</t>
+  </si>
+  <si>
+    <t>verkauft</t>
+  </si>
+  <si>
+    <t>Felix muss schon um sechs Uhr früh aufstehen.</t>
+  </si>
+  <si>
+    <t>Ferdinand Magellan hat als Erster die Welt umsegelt.</t>
+  </si>
+  <si>
+    <t>umsegelt</t>
+  </si>
+  <si>
+    <t>Findest du nicht auch, er hat sich total verändert?</t>
+  </si>
+  <si>
+    <t>verändert</t>
+  </si>
+  <si>
+    <t>Flo muss die Orange zuerst schälen, bevor er sie schneiden kann.</t>
+  </si>
+  <si>
+    <t>schälen</t>
+  </si>
+  <si>
+    <t>Früher haben in Europa und Asien Neandertaler gelebt.</t>
+  </si>
+  <si>
+    <t>gelebt</t>
+  </si>
+  <si>
+    <t>Großbritanien tritt aus der EU aus.</t>
+  </si>
+  <si>
+    <t>tritt</t>
+  </si>
+  <si>
+    <t>Halloween wurde schon von den Kelten gefeiert.</t>
+  </si>
+  <si>
+    <t>gefeiert.</t>
+  </si>
+  <si>
+    <t>Herr Becker fährt mit dem Zug nach Baden.</t>
+  </si>
+  <si>
+    <t>Hier fehlen aber noch ein paar Cent.</t>
+  </si>
+  <si>
+    <t>Howard Carter hat viele Schätze im Grab von Tutanchamun gefunden.</t>
+  </si>
+  <si>
+    <t>Das Essen riecht so gut, war kochst du heute?</t>
+  </si>
+  <si>
+    <t>kochst</t>
+  </si>
+  <si>
+    <t>Ich kann dir gerne mein Fahrrad leihen, wenn du möchtest.</t>
+  </si>
+  <si>
+    <t>Ich sitze weit entfernt von der Bühne, also schaue ich durch ein Fernglas.</t>
+  </si>
+  <si>
+    <t>schaue</t>
+  </si>
+  <si>
+    <t>Ihre Kinder liegen noch im Bett.</t>
+  </si>
+  <si>
+    <t>Im Weltraum hört man keinen Ton.</t>
+  </si>
+  <si>
+    <t>hört</t>
+  </si>
+  <si>
+    <t>Im Frühling besuchen viele Touristen unserer Hauptstadt.</t>
+  </si>
+  <si>
+    <t>Im Herbst fallen die Blätter von den Bäumen.</t>
+  </si>
+  <si>
+    <t>Im Kaffeehaus sitzen und Zeitung lesen, das gefällt den Österreichern.</t>
+  </si>
+  <si>
+    <t>gefällt</t>
+  </si>
+  <si>
+    <t>Im Mittelalter öffnete das erste Kaufhaus in Europa.</t>
+  </si>
+  <si>
+    <t>Im Nil schwimmen heilige Krokodile.</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>Im Sommer gehen Alice und Tom gerne in die Bäder schwimmen.</t>
+  </si>
+  <si>
+    <t>Im gleichen Jahr hat der amerikanische Bürgerkrieg begonnen.</t>
+  </si>
+  <si>
+    <t>begonnen</t>
+  </si>
+  <si>
+    <t>In Kalifornien wachsen riesige Bäume.</t>
+  </si>
+  <si>
+    <t>In Monaten ohne Regen trocknet die Erde so aus, dass sie ganz staubig wird.</t>
+  </si>
+  <si>
+    <t>staubig</t>
+  </si>
+  <si>
+    <t>In Neuseeland und Irland ist es so grün, weil es besonders oft regnet.</t>
+  </si>
+  <si>
+    <t>regnet</t>
+  </si>
+  <si>
+    <t>In der Morgen wasche ich mein Gesicht.</t>
+  </si>
+  <si>
+    <t>wasche</t>
+  </si>
+  <si>
+    <t>In der Parfümerie riecht es sehr stark nach verschiedenen Düften.</t>
+  </si>
+  <si>
+    <t>riecht</t>
+  </si>
+  <si>
+    <t>In der Pause werden kleine Brötchen serviert.</t>
+  </si>
+  <si>
+    <t>serviert</t>
+  </si>
+  <si>
+    <t>In Österreich darf ein Präsident 6 Jahre regieren.</t>
+  </si>
+  <si>
+    <t>regieren</t>
+  </si>
+  <si>
+    <t>In Österreich gibt es eine richtige Kaffeehauskultur.</t>
+  </si>
+  <si>
+    <t>Ja, das Wasser aus der Leitung kann man trinken.</t>
+  </si>
+  <si>
+    <t>trinken</t>
+  </si>
+  <si>
+    <t>Jetzt liest er seiner Mutter eine Geschichte vor.</t>
+  </si>
+  <si>
+    <t>liest</t>
+  </si>
+  <si>
+    <t>Kannst du bitte die Wäsche in die Sonne hängen?</t>
+  </si>
+  <si>
+    <t>Können Sie fünfzig Euro wechseln?</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>Können Sie mir auf Hundert Euro herausgeben?</t>
+  </si>
+  <si>
+    <t>herausgeben</t>
+  </si>
+  <si>
+    <t>Lenas Hund Tobi wird immer am Abend gefüttert.</t>
+  </si>
+  <si>
+    <t>Leni bewegt beim Lesen die Lippen.</t>
+  </si>
+  <si>
+    <t>bewegt</t>
+  </si>
+  <si>
+    <t>Lisa kann schon mit großen Zahlen rechnen.</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>Mama hat einen Kuchen gebacken.</t>
+  </si>
+  <si>
+    <t>Manche Menschen essen mehr Fleisch als Gemüse.</t>
+  </si>
+  <si>
+    <t>Manche Politiker wollen den Frieden auf Erden sichern.</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>Mani geht ins Kino und sieht sich einen guten Film an.</t>
+  </si>
+  <si>
+    <t>Marie mag lieber Sport.</t>
+  </si>
+  <si>
+    <t>Mark ist gestern so lange aufgeblieben, dass er heute nicht aus dem Bett kommt.</t>
+  </si>
+  <si>
+    <t>aufgeblieben</t>
+  </si>
+  <si>
+    <t>Mein Opa war beim Ohren-Arzt, weil er so schlecht hört.</t>
+  </si>
+  <si>
+    <t>Mein Vater arbeitet in einer Papierfabrik.</t>
+  </si>
+  <si>
+    <t>Morgen ändert sich das Wetter ganz bestimmt.</t>
+  </si>
+  <si>
+    <t>bestimmt</t>
+  </si>
+  <si>
+    <t>Mutters Einkäufe sind so schwer, deshalb bittet sie Jon, die Tasche zu tragen.</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>Nach einem Match hat sie keine Stimme mehr,  weil sie so laut schreit.</t>
+  </si>
+  <si>
+    <t>schreit</t>
+  </si>
+  <si>
+    <t>Neue Sterne entstehen in den Magellan-Wolken.</t>
+  </si>
+  <si>
+    <t>entstehen</t>
+  </si>
+  <si>
+    <t>Nikolaus Kopernikus beschreibt das heliozentrische Weltbild.</t>
+  </si>
+  <si>
+    <t>beschreibt</t>
+  </si>
+  <si>
+    <t>Persönliche Daten sollen geheim bleiben.</t>
+  </si>
+  <si>
+    <t>Peter interessiert sich sehr für Geschichte.</t>
+  </si>
+  <si>
+    <t>Peter sitzt den ganzen Tag am Computer.</t>
+  </si>
+  <si>
+    <t>sitzt</t>
+  </si>
+  <si>
+    <t>Plastikmüll verschmutzt die Meere.</t>
+  </si>
+  <si>
+    <t>verschmutzt</t>
+  </si>
+  <si>
+    <t>Seit der Urzeit glauben die Menschen an Götter.</t>
+  </si>
+  <si>
+    <t>glauben</t>
+  </si>
+  <si>
+    <t>Sie besichtigen die Sehenswürdigkeiten.</t>
+  </si>
+  <si>
+    <t>besichtigen</t>
+  </si>
+  <si>
+    <t>Sie haben Beeren und Kräuter gesammelt und wilde Tiere gejagt.</t>
+  </si>
+  <si>
+    <t>gesammelt, gejagt</t>
+  </si>
+  <si>
+    <t>Sie hat neue Laufschuhe bekommen.</t>
+  </si>
+  <si>
+    <t>Sie kann noch immer nicht schlafen, weil ihre Ohren wie Türglocken klingeln.</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>Sie liefern uns Bilder über die Wetterlage.</t>
+  </si>
+  <si>
+    <t>Thomas hat so kurze Haare, er muss sich nicht kämmen.</t>
+  </si>
+  <si>
+    <t>kämmen</t>
+  </si>
+  <si>
+    <t>Tim sammelt Briefmarken und Münzen.</t>
+  </si>
+  <si>
+    <t>sammelt</t>
+  </si>
+  <si>
+    <t>Unser Biolehrer unterrichtet uns auch machmal im Grünen.</t>
+  </si>
+  <si>
+    <t>unterrichtet</t>
+  </si>
+  <si>
+    <t>Viele Indianer leben in Reservaten.</t>
+  </si>
+  <si>
+    <t>Warum antwortest du nicht auf meine Frage?</t>
+  </si>
+  <si>
+    <t>antwortest</t>
+  </si>
+  <si>
+    <t>Was bedeutet Pressefreiheit für dich?</t>
+  </si>
+  <si>
+    <t>Weil er so hungrig war, hat Franz einmal einen Apfel gestohlen.</t>
+  </si>
+  <si>
+    <t>Wenn das Klima immer wärmer wird, schmelzen die Gletscher.</t>
+  </si>
+  <si>
+    <t>schmelzen</t>
+  </si>
+  <si>
+    <t>Wenn der Vulkan aktiv ist, fließt Lava heraus.</t>
+  </si>
+  <si>
+    <t>Wenn der Wind stark bläst, ziehen die Wolken schnell über den Himmel.</t>
+  </si>
+  <si>
+    <t>bläst</t>
+  </si>
+  <si>
+    <t>Wer viele CO2-Emissionen produziert, belastet die Umwelt.</t>
+  </si>
+  <si>
+    <t>belastet</t>
+  </si>
+  <si>
+    <t>Wie lange muss Pat heute im Firma noch arbeiten?</t>
+  </si>
+  <si>
+    <t>arbeiten</t>
+  </si>
+  <si>
+    <t>Wie schmeckt Iris die Melone, die ich im Geschäft nebenan gekauft habe?</t>
+  </si>
+  <si>
+    <t>Willi möchte gerne an der Universität Informatik studieren.</t>
+  </si>
+  <si>
+    <t>studieren</t>
+  </si>
+  <si>
+    <t>Wir bleiben heute zu Hause.</t>
+  </si>
+  <si>
+    <t>Wir fahren mit dem Jeep auf Safari in Kenia.</t>
+  </si>
+  <si>
+    <t>Wir schicken Sateliten in den Weltraum.</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>Wissen Sie, wer als erster Bergsteiger den Mount Everest bestiegen hat?</t>
+  </si>
+  <si>
+    <t>bestiegen</t>
+  </si>
+  <si>
+    <t>Zuhause erzählt er seiner kleinen Schwester davon.</t>
+  </si>
+  <si>
+    <t>Zum Geburtstag hat ihm Oma ein Buch mit vielen Bildern geschenkt.</t>
+  </si>
+  <si>
+    <t>geschenkt</t>
+  </si>
+  <si>
+    <t>„Ich heiße Sam“, war der erste Satz, den er in großen Buchstaben schreiben konnte.</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>Das Experiment hat eine Woche lang gedauert.</t>
+  </si>
+  <si>
+    <t>gedauert</t>
+  </si>
+  <si>
+    <t>Farben machen das Leben bunt.</t>
+  </si>
+  <si>
+    <t>Der Lehrer unterrichtet Schüler und bringt ihnen verschiedene Dinge bei.</t>
+  </si>
+  <si>
+    <t>Die Sonne brennt im Sommer auf der Haut.</t>
+  </si>
+  <si>
+    <t>In Wien besuchen die Touristen am liebsten den Stephansdom und das Schloss Schönbrunn.</t>
+  </si>
+  <si>
+    <t>Die Sonnenbrillen schützen die Augen vor der Sonne.</t>
+  </si>
+  <si>
+    <t>An Regentagen benutzen die Leute einen Regenschirm.</t>
+  </si>
+  <si>
+    <t>Ein Fußball Team besteht aus zehn Spielern und einem Tormann.</t>
+  </si>
+  <si>
+    <t>In den Zeitungen , im Radio und im Fernsehen wird regelmäßig über Sport berichtet.</t>
+  </si>
+  <si>
+    <t>berichtet</t>
+  </si>
+  <si>
+    <t>Der Klima Schutz soll verhindern, dass es auf der Erde immer wärmer wird.</t>
+  </si>
+  <si>
+    <t>verhindern</t>
+  </si>
+  <si>
+    <t>Afrika liegt südlich von Europa .</t>
+  </si>
+  <si>
+    <t>Arbeitslos-sein bedeutet: man hat keinen Arbeits-Platz.</t>
+  </si>
+  <si>
+    <t>Biologie gehört zu den Natur-Wissenschaften.</t>
+  </si>
+  <si>
+    <t>Menschen und Firmen können ein Konto bei der Bank eröffnen.</t>
+  </si>
+  <si>
+    <t>eröffnen</t>
+  </si>
+  <si>
+    <t>Karneval wird jedes Jahr im Februar oder im März gefeiert.</t>
+  </si>
+  <si>
+    <t>gefeiert</t>
+  </si>
+  <si>
+    <t>Man nennt Klima-Wandel , dass die Temperaturen auf unserer Erde steigen.</t>
+  </si>
+  <si>
+    <t>Ein Flüchtling ist jemand , der aus Not seine Heimat verlässt.</t>
+  </si>
+  <si>
+    <t>verlässt</t>
+  </si>
+  <si>
+    <t>Man kann sich Bilder und Videos von anderen Menschen auf Instagram anschauen.</t>
+  </si>
+  <si>
+    <t>anschauen</t>
+  </si>
+  <si>
+    <t>Lebensmittel sind die Dinge , die man essen kann.</t>
+  </si>
+  <si>
+    <t>Die Wissenschaftler aus der Physik heißen Physiker.</t>
+  </si>
+  <si>
+    <t>Planeten kreisen um eine Sonne.</t>
+  </si>
+  <si>
+    <t>kreisen</t>
+  </si>
+  <si>
+    <t>Mit dem Rezept kann man die Medizin in der Apotheke kaufen.</t>
+  </si>
+  <si>
+    <t>Auf der Youtube kann man Videos anschauen.</t>
+  </si>
+  <si>
+    <t>Die Katzen jagen Mäuse.</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>Obst sollte man täglich essen, weil es wegen den Vitaminen sehr gesund ist.</t>
+  </si>
+  <si>
+    <t>Briefe und Pakete verschickt man mit der Post.</t>
+  </si>
+  <si>
+    <t>verschickt</t>
+  </si>
+  <si>
+    <t>Einen Regenbogen sieht man vor, während oder nach einem Regen.</t>
+  </si>
+  <si>
+    <t>Brot kann man in der Bäckerei kaufen.</t>
+  </si>
+  <si>
+    <t>Beim Spinat und Kohl wird man die Blätter essen.</t>
+  </si>
+  <si>
+    <t>Auf einer CD sind der Musik oder gesprochener Text gespeichert.</t>
+  </si>
+  <si>
+    <t>gespeichert</t>
+  </si>
+  <si>
+    <t>Die Fische leben in Flüssen , Seen und Meeren.</t>
+  </si>
+  <si>
+    <t>Leichte Sprache ist eine Hilfe für Menschen , die keine schwierige Sprache verstehen.</t>
+  </si>
+  <si>
+    <t>verstehen</t>
+  </si>
+  <si>
+    <t>Während einer Trocken-Zeit regnet es sehr selten.</t>
+  </si>
+  <si>
+    <t>An der Tankstelle füllen wir Benzin in den Tank.</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>Mit der Benzin wird der Motor des Autos angetrieben.</t>
+  </si>
+  <si>
+    <t>angetrieben</t>
+  </si>
+  <si>
+    <t>Die Abgase der Benzinmotoren verschmutzen die Luft.</t>
+  </si>
+  <si>
+    <t>verschmutzen</t>
+  </si>
+  <si>
+    <t>Abgase schaden dem Klima.</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>Da Elena arbeiten muss, überlässt sie ihre Kinder seiner Mutter.</t>
+  </si>
+  <si>
+    <t>überlässt</t>
+  </si>
+  <si>
+    <t>Wir brauchen jemanden mit mehr Erfahrung.</t>
+  </si>
+  <si>
+    <t>Du muss deine schmutzige Kleidung in der Wäscherei waschen.</t>
+  </si>
+  <si>
+    <t>Der Läufer hat seine Konkurrenten mühelos geschlagen.</t>
+  </si>
+  <si>
+    <t>geschlagen</t>
+  </si>
+  <si>
+    <t>Du musst die Verantwortung für deine Taten übernehmen.</t>
+  </si>
+  <si>
+    <t>übernehmen</t>
+  </si>
+  <si>
+    <t>Diese Grafik stellt die Ergebnisse deutlich dar.</t>
+  </si>
+  <si>
+    <t>stellt</t>
+  </si>
+  <si>
+    <t>Wir bestellten ein stück Hassnuss Kuchen zum Dessert.</t>
+  </si>
+  <si>
+    <t>bestellten</t>
+  </si>
+  <si>
+    <t>Der Vogel flog zurück zu seinem Nest.</t>
+  </si>
+  <si>
+    <t>flog</t>
+  </si>
+  <si>
+    <t>Ich musste heute Morgen richtig schnell nach der Busstation laufen.</t>
+  </si>
+  <si>
+    <t>Das klingt nach harter Arbeit.</t>
+  </si>
+  <si>
+    <t>klingt</t>
+  </si>
+  <si>
+    <t>Plastik Müll belastet die Umwelt.</t>
+  </si>
+  <si>
+    <t>Ich wusste die Antwort nicht, also musste ich raten.</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>Ich habe keine Ahnung, wie viel du für das Auto gezahlt hast, aber lass mich mal raten.</t>
+  </si>
+  <si>
+    <t>Da drüben raucht es, wir sollten die Feuerwehr holen.</t>
+  </si>
+  <si>
+    <t>raucht</t>
+  </si>
+  <si>
+    <t>Er hat jahrzehntelang geraucht und seine Lunge schwer geschädigt.</t>
+  </si>
+  <si>
+    <t>geraucht</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>Er kann zwanzig Zigarattes pro Tag rauchen, was sehr ungesund ist.</t>
+  </si>
+  <si>
+    <t>Du kannst auf meine Unterstützung rechnen.</t>
+  </si>
+  <si>
+    <t>Unter solchen Bedingungen kann man den Umfang des Kreises leicht berechnen.</t>
+  </si>
+  <si>
+    <t>berechnen</t>
+  </si>
+  <si>
+    <t>Ich rechne fest damit, dass er kommt.</t>
+  </si>
+  <si>
+    <t>rechne</t>
+  </si>
+  <si>
+    <t>Er wird seinem Traum folgen, egal was die Leute reden.</t>
+  </si>
+  <si>
+    <t>reden</t>
+  </si>
+  <si>
+    <t>Ich habe gestern Abend mit meiner Mutter geredet.</t>
+  </si>
+  <si>
+    <t>geredet</t>
+  </si>
+  <si>
+    <t>Sie redete leise und unverständlich.</t>
+  </si>
+  <si>
+    <t>redete</t>
+  </si>
+  <si>
+    <t>Er ist durch die ganze Welt gereist.</t>
+  </si>
+  <si>
+    <t>gereist</t>
+  </si>
+  <si>
+    <t>Mit meinem Wagen kann ich nach Tibet reisen.</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>Während meines Urlaubs werde ich nach China und Japan reisen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bist du schon mal auf einem Pony geritten? </t>
+  </si>
+  <si>
+    <t>geritten</t>
+  </si>
+  <si>
+    <t>Er pflegte jeden Abend auf Pferden zu reiten und durch die Wälder zu gehen.</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>Die alte Zimmerdecke muss man renovieren.</t>
+  </si>
+  <si>
+    <t>renovieren</t>
+  </si>
+  <si>
+    <t>Das Staatstheater ist s ist zu alt und wird dieses Jahr renoviert.</t>
+  </si>
+  <si>
+    <t>renoviert</t>
+  </si>
+  <si>
+    <t>Die Firma hat einen Fachmann hinzugezogen, um das Netzwerk zu reparieren.</t>
+  </si>
+  <si>
+    <t>reparieren</t>
+  </si>
+  <si>
+    <t>Der Arbeiter repariert eine Panne.</t>
+  </si>
+  <si>
+    <t>repariert</t>
+  </si>
+  <si>
+    <t>Der Aufzug ist repariert, jetzt funktioniert er wieder.</t>
+  </si>
+  <si>
+    <t>Er beschäftigt sich damit, diese kaputte Maschine zu reparieren.</t>
+  </si>
+  <si>
+    <t>Ich möchte einen Tisch für das Abendessen reservieren.</t>
+  </si>
+  <si>
+    <t>reservieren</t>
+  </si>
+  <si>
+    <t>Ich möchte gerne ein Zimmer im Hilton-Hotel reservieren.</t>
+  </si>
+  <si>
+    <t>Ich habe einen Platz für die Oper reserviert.</t>
+  </si>
+  <si>
+    <t>reserviert</t>
+  </si>
+  <si>
+    <t>Bitte reservieren Sie einen Platz, bevor Sie ins Restaurant gehen.</t>
+  </si>
+  <si>
+    <t>Die Blumen in meinem Garten riechen gut.</t>
+  </si>
+  <si>
+    <t>riechen</t>
+  </si>
+  <si>
+    <t>Die Milch riecht verdorben.</t>
+  </si>
+  <si>
+    <t>Ihre Kleider riechen nach Rauch.</t>
+  </si>
+  <si>
+    <t>Man kann die salzige Luft riechen.</t>
+  </si>
+  <si>
+    <t>Wenn du dich in einer gefährlichen Situation befindest, rufe nach Hilfe.</t>
+  </si>
+  <si>
+    <t>rufe</t>
+  </si>
+  <si>
+    <t>Ich höre sie den Namen Sam rufen.</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>Entschuldigung, können Sie mir ein Taxi rufen?</t>
+  </si>
+  <si>
+    <t>Sam ist nicht da, soll ich ihm sagen, dass Sie nachher zurück rufen?</t>
+  </si>
+  <si>
+    <t>Das Mädchen wollte etwas sagen, also hob sie ihre Hand.</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>Der Arzt hat gesagt, ich sähe völlig gesund aus.</t>
+  </si>
+  <si>
+    <t>gesagt</t>
+  </si>
+  <si>
+    <t>Sam ist ein ehrlicher Mann und sagt immer die Wahrheit.</t>
+  </si>
+  <si>
+    <t>sagt</t>
+  </si>
+  <si>
+    <t>Siehst du! Ich habe dir gesagt, dass es regnen würde.</t>
+  </si>
+  <si>
+    <t>Das Geheimnis darfst du niemand sagen.</t>
+  </si>
+  <si>
+    <t>Nachdem ich nicht da war, kann ich nichts dazu sagen.</t>
+  </si>
+  <si>
+    <t>Ich musste für meinen Vortrag eine Menge Informationen sammeln.</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>Die Polizei sammelte alle verfügbaren Informationen.</t>
+  </si>
+  <si>
+    <t>sammelte</t>
+  </si>
+  <si>
+    <t>Wir haben im Wald Beeren und Pilze gesammelt.</t>
+  </si>
+  <si>
+    <t>gesammelt</t>
+  </si>
+  <si>
+    <t>Es dauerte lange, alle nötigen Informationen zu sammeln.</t>
+  </si>
+  <si>
+    <t>Alkoholsucht schadet der Gesundheit.</t>
+  </si>
+  <si>
+    <t>schadet</t>
+  </si>
+  <si>
+    <t>Rauchen schadet deiner Lunge.</t>
+  </si>
+  <si>
+    <t>Die Regierung plant, mehr Arbeitsplätze für junge Menschen zu schaffen.</t>
+  </si>
+  <si>
+    <t>schaffen</t>
+  </si>
+  <si>
+    <t>Die technologische Entwicklung schafft immer kleinere Computer.</t>
+  </si>
+  <si>
+    <t>schafft</t>
+  </si>
+  <si>
+    <t>Wir schafften es, das Projekt nach Plan abzuschließen.</t>
+  </si>
+  <si>
+    <t>schafften</t>
+  </si>
+  <si>
+    <t>Wir sind stolz auf das, was wir bis jetzt geschafft haben.</t>
+  </si>
+  <si>
+    <t>geschafft</t>
+  </si>
+  <si>
+    <t>Ich bin der Überzeugung, dass er es rechtzeitig schaffen kann.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es hat die ganze Woche geregnet, aber heute scheint endlich die Sonne. </t>
+  </si>
+  <si>
+    <t>scheint</t>
+  </si>
+  <si>
+    <t>Die Sonne scheint durch die grauen Wolken.</t>
+  </si>
+  <si>
+    <t>Der Mond scheint hell.</t>
+  </si>
+  <si>
+    <t>Sie scheinen nicht zu wissen, mit wem Sie es zu tun haben.</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>Alle diese Probleme scheinen in dieselbe große Frage zu münden.</t>
+  </si>
+  <si>
+    <t>Du solltest deiner Geliebten Blumen zum Geburtstag schenken.</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>Mein Freund schenkt mir eine Schachtel mit Schokolade.</t>
+  </si>
+  <si>
+    <t>schenkt</t>
+  </si>
+  <si>
+    <t>Am Geburtstag hat mein Vater mir einen Geschenk geschenkt.</t>
+  </si>
+  <si>
+    <t>Die Kellnerin schenkte den Kunden Wein nach.</t>
+  </si>
+  <si>
+    <t>schenkte</t>
+  </si>
+  <si>
+    <t>Ich schicke die Dateien als E-Mail-Anhang.</t>
+  </si>
+  <si>
+    <t>schicke</t>
+  </si>
+  <si>
+    <t>Der Mann läuft zu schell, um die Post zu schicken.</t>
+  </si>
+  <si>
+    <t>Ich geht auf das Postamt, um ein Paket meinem Freund zu schicken.</t>
+  </si>
+  <si>
+    <t>Sie hat Schlafmittel genommen, damit sie gut schlafen kann.</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>Das Fenster war offen, aber ich schließe es jetzt.</t>
+  </si>
+  <si>
+    <t>schließe</t>
+  </si>
+  <si>
+    <t>Bitte schließen das Fenster zu. Es ist windig.</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>Um Mitternacht schließt das Lokal.</t>
+  </si>
+  <si>
+    <t>schließt</t>
+  </si>
+  <si>
+    <t>Diese Speise schmeckt sauer.</t>
+  </si>
+  <si>
+    <t>Die Wassermelone schmeckt sehr süß.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Brot schmeckt lecker. </t>
+  </si>
+  <si>
+    <t>Ich schnitt das Fleisch in Würfel.</t>
+  </si>
+  <si>
+    <t>schnitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir schneiden den Apfel in zwei Hälften. </t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>Ich habe die Zitrone in Scheiben geschnitten.</t>
+  </si>
+  <si>
+    <t>geschnitten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2104,13 +4063,25 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2140,7 +4111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2156,6 +4127,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="149" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B403" sqref="B403"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6875,7 +8853,4410 @@
         <v>666</v>
       </c>
     </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>401</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>402</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>403</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>404</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>405</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>406</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>407</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>408</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>409</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>410</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>411</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>412</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>413</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>414</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>415</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>416</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
+        <v>417</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
+        <v>418</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
+        <v>419</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
+        <v>420</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
+        <v>421</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
+        <v>422</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
+        <v>423</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="4">
+        <v>424</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="4">
+        <v>425</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="4">
+        <v>426</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="4">
+        <v>427</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="4">
+        <v>428</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="4">
+        <v>429</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="4">
+        <v>430</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="4">
+        <v>431</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="4">
+        <v>432</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
+        <v>433</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="4">
+        <v>434</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="4">
+        <v>435</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="4">
+        <v>436</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="4">
+        <v>437</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="4">
+        <v>438</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="4">
+        <v>439</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="4">
+        <v>440</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="4">
+        <v>441</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" s="4">
+        <v>442</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="4">
+        <v>443</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="4">
+        <v>444</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="4">
+        <v>445</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="4">
+        <v>446</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" s="4">
+        <v>447</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" s="4">
+        <v>448</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="4">
+        <v>449</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="4">
+        <v>450</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" s="4">
+        <v>451</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" s="4">
+        <v>452</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="4">
+        <v>453</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="4">
+        <v>454</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" s="4">
+        <v>455</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="4">
+        <v>456</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="4">
+        <v>457</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="4">
+        <v>458</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="4">
+        <v>459</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" s="4">
+        <v>460</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" s="4">
+        <v>461</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="4">
+        <v>462</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="4">
+        <v>463</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="4">
+        <v>464</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="4">
+        <v>465</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="4">
+        <v>466</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="4">
+        <v>467</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="4">
+        <v>468</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C469" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="4">
+        <v>469</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C470" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="4">
+        <v>470</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C471" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="4">
+        <v>471</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="4">
+        <v>472</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="4">
+        <v>473</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="12">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>915</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="4">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>861</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="4">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>841</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="4">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="4">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="4">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="4">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
+        <v>784</v>
+      </c>
+      <c r="C481" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="4">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="4">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="4">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>757</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="4">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>758</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="4">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="4">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="4">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>729</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="4">
+        <v>488</v>
+      </c>
+      <c r="B489" t="s">
+        <v>998</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="4">
+        <v>489</v>
+      </c>
+      <c r="B490" t="s">
+        <v>980</v>
+      </c>
+      <c r="C490" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="4">
+        <v>490</v>
+      </c>
+      <c r="B491" t="s">
+        <v>910</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="4">
+        <v>491</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="4">
+        <v>492</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="4">
+        <v>493</v>
+      </c>
+      <c r="B494" t="s">
+        <v>858</v>
+      </c>
+      <c r="C494" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="4">
+        <v>494</v>
+      </c>
+      <c r="B495" t="s">
+        <v>881</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="4">
+        <v>495</v>
+      </c>
+      <c r="B496" t="s">
+        <v>845</v>
+      </c>
+      <c r="C496" s="9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="4">
+        <v>496</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C497" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="4">
+        <v>497</v>
+      </c>
+      <c r="B498" t="s">
+        <v>886</v>
+      </c>
+      <c r="C498" s="9" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="4">
+        <v>498</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C499" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="4">
+        <v>499</v>
+      </c>
+      <c r="B500" t="s">
+        <v>844</v>
+      </c>
+      <c r="C500" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="4">
+        <v>500</v>
+      </c>
+      <c r="B501" t="s">
+        <v>847</v>
+      </c>
+      <c r="C501" s="9" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="4">
+        <v>501</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="4">
+        <v>502</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="4">
+        <v>503</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="4">
+        <v>504</v>
+      </c>
+      <c r="B505" t="s">
+        <v>851</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="4">
+        <v>505</v>
+      </c>
+      <c r="B506" t="s">
+        <v>711</v>
+      </c>
+      <c r="C506" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="4">
+        <v>506</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="4">
+        <v>507</v>
+      </c>
+      <c r="B508" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C508" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="4">
+        <v>508</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="4">
+        <v>509</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>510</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>511</v>
+      </c>
+      <c r="B512" t="s">
+        <v>714</v>
+      </c>
+      <c r="C512" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>512</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>513</v>
+      </c>
+      <c r="B514" t="s">
+        <v>990</v>
+      </c>
+      <c r="C514" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>514</v>
+      </c>
+      <c r="B515" t="s">
+        <v>991</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>515</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>516</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>517</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>518</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>519</v>
+      </c>
+      <c r="B520" t="s">
+        <v>892</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>520</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>521</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>522</v>
+      </c>
+      <c r="B523" t="s">
+        <v>771</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>523</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C524" s="9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>524</v>
+      </c>
+      <c r="B525" t="s">
+        <v>812</v>
+      </c>
+      <c r="C525" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>525</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>526</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>527</v>
+      </c>
+      <c r="B528" t="s">
+        <v>931</v>
+      </c>
+      <c r="C528" s="9" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>528</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>529</v>
+      </c>
+      <c r="B530" t="s">
+        <v>749</v>
+      </c>
+      <c r="C530" s="9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>530</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>531</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>532</v>
+      </c>
+      <c r="B533" t="s">
+        <v>715</v>
+      </c>
+      <c r="C533" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>533</v>
+      </c>
+      <c r="B534" t="s">
+        <v>761</v>
+      </c>
+      <c r="C534" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>534</v>
+      </c>
+      <c r="B535" t="s">
+        <v>946</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>535</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>536</v>
+      </c>
+      <c r="B537" t="s">
+        <v>753</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>537</v>
+      </c>
+      <c r="B538" t="s">
+        <v>837</v>
+      </c>
+      <c r="C538" s="9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>538</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>539</v>
+      </c>
+      <c r="B540" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C540" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>540</v>
+      </c>
+      <c r="B541" t="s">
+        <v>956</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="4">
+        <v>541</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C542" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="4">
+        <v>542</v>
+      </c>
+      <c r="B543" t="s">
+        <v>983</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="4">
+        <v>543</v>
+      </c>
+      <c r="B544" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C544" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="4">
+        <v>544</v>
+      </c>
+      <c r="B545" t="s">
+        <v>925</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="4">
+        <v>545</v>
+      </c>
+      <c r="B546" t="s">
+        <v>738</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="4">
+        <v>546</v>
+      </c>
+      <c r="B547" t="s">
+        <v>944</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="4">
+        <v>547</v>
+      </c>
+      <c r="B548" t="s">
+        <v>820</v>
+      </c>
+      <c r="C548" s="9" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="4">
+        <v>548</v>
+      </c>
+      <c r="B549" t="s">
+        <v>827</v>
+      </c>
+      <c r="C549" s="9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="4">
+        <v>549</v>
+      </c>
+      <c r="B550" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C550" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="4">
+        <v>550</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="4">
+        <v>551</v>
+      </c>
+      <c r="B552" t="s">
+        <v>906</v>
+      </c>
+      <c r="C552" s="9" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="4">
+        <v>552</v>
+      </c>
+      <c r="B553" t="s">
+        <v>941</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="4">
+        <v>553</v>
+      </c>
+      <c r="B554" t="s">
+        <v>908</v>
+      </c>
+      <c r="C554" s="9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="4">
+        <v>554</v>
+      </c>
+      <c r="B555" t="s">
+        <v>856</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="4">
+        <v>555</v>
+      </c>
+      <c r="B556" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C556" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="4">
+        <v>556</v>
+      </c>
+      <c r="B557" t="s">
+        <v>898</v>
+      </c>
+      <c r="C557" s="9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="4">
+        <v>557</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C558" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="4">
+        <v>558</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="4">
+        <v>559</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C560" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="4">
+        <v>560</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="4">
+        <v>561</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="4">
+        <v>562</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="4">
+        <v>563</v>
+      </c>
+      <c r="B564" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C564" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="4">
+        <v>564</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="4">
+        <v>565</v>
+      </c>
+      <c r="B566" t="s">
+        <v>803</v>
+      </c>
+      <c r="C566" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="4">
+        <v>566</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="4">
+        <v>567</v>
+      </c>
+      <c r="B568" t="s">
+        <v>786</v>
+      </c>
+      <c r="C568" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="4">
+        <v>568</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="4">
+        <v>569</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C570" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="4">
+        <v>570</v>
+      </c>
+      <c r="B571" t="s">
+        <v>904</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="4">
+        <v>571</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C572" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="4">
+        <v>572</v>
+      </c>
+      <c r="B573" t="s">
+        <v>924</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="4">
+        <v>573</v>
+      </c>
+      <c r="B574" t="s">
+        <v>970</v>
+      </c>
+      <c r="C574" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="4">
+        <v>574</v>
+      </c>
+      <c r="B575" t="s">
+        <v>797</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="4">
+        <v>575</v>
+      </c>
+      <c r="B576" t="s">
+        <v>789</v>
+      </c>
+      <c r="C576" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="4">
+        <v>576</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="4">
+        <v>577</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C578" s="10" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="4">
+        <v>578</v>
+      </c>
+      <c r="B579" t="s">
+        <v>869</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="4">
+        <v>579</v>
+      </c>
+      <c r="B580" t="s">
+        <v>864</v>
+      </c>
+      <c r="C580" s="9" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="4">
+        <v>580</v>
+      </c>
+      <c r="B581" t="s">
+        <v>843</v>
+      </c>
+      <c r="C581" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="4">
+        <v>581</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="4">
+        <v>582</v>
+      </c>
+      <c r="B583" t="s">
+        <v>755</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="4">
+        <v>583</v>
+      </c>
+      <c r="B584" t="s">
+        <v>943</v>
+      </c>
+      <c r="C584" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="4">
+        <v>584</v>
+      </c>
+      <c r="B585" t="s">
+        <v>896</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="4">
+        <v>585</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="4">
+        <v>586</v>
+      </c>
+      <c r="B587" t="s">
+        <v>952</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="4">
+        <v>587</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="4">
+        <v>588</v>
+      </c>
+      <c r="B589" t="s">
+        <v>732</v>
+      </c>
+      <c r="C589" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="4">
+        <v>589</v>
+      </c>
+      <c r="B590" t="s">
+        <v>927</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="4">
+        <v>590</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="4">
+        <v>591</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="4">
+        <v>592</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C593" s="9" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="4">
+        <v>593</v>
+      </c>
+      <c r="B594" t="s">
+        <v>914</v>
+      </c>
+      <c r="C594" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="4">
+        <v>594</v>
+      </c>
+      <c r="B595" t="s">
+        <v>742</v>
+      </c>
+      <c r="C595" s="9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="4">
+        <v>595</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C596" s="9" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="4">
+        <v>596</v>
+      </c>
+      <c r="B597" t="s">
+        <v>849</v>
+      </c>
+      <c r="C597" s="9" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="4">
+        <v>597</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C598" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="4">
+        <v>598</v>
+      </c>
+      <c r="B599" t="s">
+        <v>730</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="4">
+        <v>599</v>
+      </c>
+      <c r="B600" t="s">
+        <v>900</v>
+      </c>
+      <c r="C600" s="9" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="4">
+        <v>600</v>
+      </c>
+      <c r="B601" t="s">
+        <v>814</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="4">
+        <v>601</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="4">
+        <v>602</v>
+      </c>
+      <c r="B603" t="s">
+        <v>779</v>
+      </c>
+      <c r="C603" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="4">
+        <v>603</v>
+      </c>
+      <c r="B604" t="s">
+        <v>961</v>
+      </c>
+      <c r="C604" s="9" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="4">
+        <v>604</v>
+      </c>
+      <c r="B605" t="s">
+        <v>717</v>
+      </c>
+      <c r="C605" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="4">
+        <v>605</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C606" s="9" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="4">
+        <v>606</v>
+      </c>
+      <c r="B607" t="s">
+        <v>782</v>
+      </c>
+      <c r="C607" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="4">
+        <v>607</v>
+      </c>
+      <c r="B608" t="s">
+        <v>947</v>
+      </c>
+      <c r="C608" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="4">
+        <v>608</v>
+      </c>
+      <c r="B609" t="s">
+        <v>981</v>
+      </c>
+      <c r="C609" s="9" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="4">
+        <v>609</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="4">
+        <v>610</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="4">
+        <v>611</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C612" s="10" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="4">
+        <v>612</v>
+      </c>
+      <c r="B613" t="s">
+        <v>985</v>
+      </c>
+      <c r="C613" s="9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="4">
+        <v>613</v>
+      </c>
+      <c r="B614" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C614" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="4">
+        <v>614</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="4">
+        <v>615</v>
+      </c>
+      <c r="B616" t="s">
+        <v>871</v>
+      </c>
+      <c r="C616" s="9" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="4">
+        <v>616</v>
+      </c>
+      <c r="B617" t="s">
+        <v>829</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="4">
+        <v>617</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="4">
+        <v>618</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C619" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="4">
+        <v>619</v>
+      </c>
+      <c r="B620" t="s">
+        <v>922</v>
+      </c>
+      <c r="C620" s="9" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="4">
+        <v>620</v>
+      </c>
+      <c r="B621" t="s">
+        <v>724</v>
+      </c>
+      <c r="C621" s="9" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="4">
+        <v>621</v>
+      </c>
+      <c r="B622" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C622" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="4">
+        <v>622</v>
+      </c>
+      <c r="B623" t="s">
+        <v>713</v>
+      </c>
+      <c r="C623" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="4">
+        <v>623</v>
+      </c>
+      <c r="B624" t="s">
+        <v>762</v>
+      </c>
+      <c r="C624" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="4">
+        <v>624</v>
+      </c>
+      <c r="B625" t="s">
+        <v>781</v>
+      </c>
+      <c r="C625" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="4">
+        <v>625</v>
+      </c>
+      <c r="B626" t="s">
+        <v>824</v>
+      </c>
+      <c r="C626" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="4">
+        <v>626</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C627" s="9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="4">
+        <v>627</v>
+      </c>
+      <c r="B628" t="s">
+        <v>835</v>
+      </c>
+      <c r="C628" s="9" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="4">
+        <v>628</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="4">
+        <v>629</v>
+      </c>
+      <c r="B630" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C630" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="4">
+        <v>630</v>
+      </c>
+      <c r="B631" t="s">
+        <v>917</v>
+      </c>
+      <c r="C631" s="9" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="4">
+        <v>631</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C632" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="4">
+        <v>632</v>
+      </c>
+      <c r="B633" t="s">
+        <v>703</v>
+      </c>
+      <c r="C633" s="9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="4">
+        <v>633</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C634" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="4">
+        <v>634</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="4">
+        <v>635</v>
+      </c>
+      <c r="B636" t="s">
+        <v>948</v>
+      </c>
+      <c r="C636" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="4">
+        <v>636</v>
+      </c>
+      <c r="B637" t="s">
+        <v>912</v>
+      </c>
+      <c r="C637" s="9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="4">
+        <v>637</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C638" s="9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="4">
+        <v>638</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="4">
+        <v>639</v>
+      </c>
+      <c r="B640" t="s">
+        <v>804</v>
+      </c>
+      <c r="C640" s="9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="4">
+        <v>640</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="4">
+        <v>641</v>
+      </c>
+      <c r="B642" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C642" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="4">
+        <v>642</v>
+      </c>
+      <c r="B643" t="s">
+        <v>721</v>
+      </c>
+      <c r="C643" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="4">
+        <v>643</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="4">
+        <v>644</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="4">
+        <v>645</v>
+      </c>
+      <c r="B646" t="s">
+        <v>890</v>
+      </c>
+      <c r="C646" s="9" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="4">
+        <v>646</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="4">
+        <v>647</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C648" s="10" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="4">
+        <v>648</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="4">
+        <v>649</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C650" s="10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="4">
+        <v>650</v>
+      </c>
+      <c r="B651" t="s">
+        <v>959</v>
+      </c>
+      <c r="C651" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="4">
+        <v>651</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C652" s="9" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" s="4">
+        <v>652</v>
+      </c>
+      <c r="B653" t="s">
+        <v>740</v>
+      </c>
+      <c r="C653" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" s="4">
+        <v>653</v>
+      </c>
+      <c r="B654" t="s">
+        <v>809</v>
+      </c>
+      <c r="C654" s="9" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" s="4">
+        <v>654</v>
+      </c>
+      <c r="B655" t="s">
+        <v>866</v>
+      </c>
+      <c r="C655" s="9" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="4">
+        <v>655</v>
+      </c>
+      <c r="B656" t="s">
+        <v>953</v>
+      </c>
+      <c r="C656" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="4">
+        <v>656</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="4">
+        <v>657</v>
+      </c>
+      <c r="B658" t="s">
+        <v>834</v>
+      </c>
+      <c r="C658" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="4">
+        <v>658</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="4">
+        <v>659</v>
+      </c>
+      <c r="B660" t="s">
+        <v>808</v>
+      </c>
+      <c r="C660" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="4">
+        <v>660</v>
+      </c>
+      <c r="B661" t="s">
+        <v>811</v>
+      </c>
+      <c r="C661" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="4">
+        <v>661</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C662" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="4">
+        <v>662</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="4">
+        <v>663</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C664" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="4">
+        <v>664</v>
+      </c>
+      <c r="B665" t="s">
+        <v>741</v>
+      </c>
+      <c r="C665" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="4">
+        <v>665</v>
+      </c>
+      <c r="B666" t="s">
+        <v>884</v>
+      </c>
+      <c r="C666" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="4">
+        <v>666</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="4">
+        <v>667</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C668" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="4">
+        <v>668</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="4">
+        <v>669</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C670" s="9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="4">
+        <v>670</v>
+      </c>
+      <c r="B671" t="s">
+        <v>577</v>
+      </c>
+      <c r="C671" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="4">
+        <v>671</v>
+      </c>
+      <c r="B672" t="s">
+        <v>788</v>
+      </c>
+      <c r="C672" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="4">
+        <v>672</v>
+      </c>
+      <c r="B673" t="s">
+        <v>807</v>
+      </c>
+      <c r="C673" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="4">
+        <v>673</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C674" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="4">
+        <v>674</v>
+      </c>
+      <c r="B675" t="s">
+        <v>902</v>
+      </c>
+      <c r="C675" s="9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="4">
+        <v>675</v>
+      </c>
+      <c r="B676" t="s">
+        <v>722</v>
+      </c>
+      <c r="C676" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="4">
+        <v>676</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="4">
+        <v>677</v>
+      </c>
+      <c r="B678" t="s">
+        <v>769</v>
+      </c>
+      <c r="C678" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="4">
+        <v>678</v>
+      </c>
+      <c r="B679" t="s">
+        <v>954</v>
+      </c>
+      <c r="C679" s="9" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="4">
+        <v>679</v>
+      </c>
+      <c r="B680" t="s">
+        <v>974</v>
+      </c>
+      <c r="C680" s="9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="4">
+        <v>680</v>
+      </c>
+      <c r="B681" t="s">
+        <v>933</v>
+      </c>
+      <c r="C681" s="9" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="4">
+        <v>681</v>
+      </c>
+      <c r="B682" t="s">
+        <v>726</v>
+      </c>
+      <c r="C682" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="4">
+        <v>682</v>
+      </c>
+      <c r="B683" t="s">
+        <v>748</v>
+      </c>
+      <c r="C683" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="4">
+        <v>683</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C684" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="4">
+        <v>684</v>
+      </c>
+      <c r="B685" t="s">
+        <v>792</v>
+      </c>
+      <c r="C685" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="4">
+        <v>685</v>
+      </c>
+      <c r="B686" t="s">
+        <v>790</v>
+      </c>
+      <c r="C686" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="4">
+        <v>686</v>
+      </c>
+      <c r="B687" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="C687" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="4">
+        <v>687</v>
+      </c>
+      <c r="B688" t="s">
+        <v>894</v>
+      </c>
+      <c r="C688" s="9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="4">
+        <v>688</v>
+      </c>
+      <c r="B689" t="s">
+        <v>978</v>
+      </c>
+      <c r="C689" s="9" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="4">
+        <v>689</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C690" s="9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="4">
+        <v>690</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C691" s="9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="4">
+        <v>691</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C692" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="4">
+        <v>692</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="4">
+        <v>693</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C694" s="9" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="4">
+        <v>694</v>
+      </c>
+      <c r="B695" t="s">
+        <v>859</v>
+      </c>
+      <c r="C695" s="9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="4">
+        <v>695</v>
+      </c>
+      <c r="B696" t="s">
+        <v>972</v>
+      </c>
+      <c r="C696" s="9" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="4">
+        <v>696</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C697" s="10" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="4">
+        <v>697</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C698" s="10" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="4">
+        <v>698</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C699" s="9" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="4">
+        <v>699</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C700" s="9" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="4">
+        <v>700</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="4">
+        <v>701</v>
+      </c>
+      <c r="B702" t="s">
+        <v>746</v>
+      </c>
+      <c r="C702" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="4">
+        <v>702</v>
+      </c>
+      <c r="B703" t="s">
+        <v>949</v>
+      </c>
+      <c r="C703" s="9" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="4">
+        <v>703</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C704" s="10" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="4">
+        <v>704</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C705" s="10" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="4">
+        <v>705</v>
+      </c>
+      <c r="B706" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C706" s="9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="4">
+        <v>706</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C707" s="10" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="4">
+        <v>707</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C708" s="10" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="4">
+        <v>708</v>
+      </c>
+      <c r="B709" t="s">
+        <v>765</v>
+      </c>
+      <c r="C709" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="4">
+        <v>709</v>
+      </c>
+      <c r="B710" t="s">
+        <v>992</v>
+      </c>
+      <c r="C710" s="9" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="4">
+        <v>710</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C711" s="10" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="4">
+        <v>711</v>
+      </c>
+      <c r="B712" t="s">
+        <v>854</v>
+      </c>
+      <c r="C712" s="9" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="4">
+        <v>712</v>
+      </c>
+      <c r="B713" t="s">
+        <v>863</v>
+      </c>
+      <c r="C713" s="9" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="4">
+        <v>713</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C714" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="4">
+        <v>714</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C715" s="9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="4">
+        <v>715</v>
+      </c>
+      <c r="B716" t="s">
+        <v>816</v>
+      </c>
+      <c r="C716" s="9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="4">
+        <v>716</v>
+      </c>
+      <c r="B717" t="s">
+        <v>963</v>
+      </c>
+      <c r="C717" s="9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="4">
+        <v>717</v>
+      </c>
+      <c r="B718" t="s">
+        <v>989</v>
+      </c>
+      <c r="C718" s="9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="4">
+        <v>718</v>
+      </c>
+      <c r="B719" t="s">
+        <v>888</v>
+      </c>
+      <c r="C719" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="4">
+        <v>719</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C720" s="9" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="4">
+        <v>720</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C721" s="10" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="4">
+        <v>721</v>
+      </c>
+      <c r="B722" t="s">
+        <v>751</v>
+      </c>
+      <c r="C722" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="4">
+        <v>722</v>
+      </c>
+      <c r="B723" t="s">
+        <v>831</v>
+      </c>
+      <c r="C723" s="9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="4">
+        <v>723</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C724" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="4">
+        <v>724</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C725" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="4">
+        <v>725</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C726" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="4">
+        <v>726</v>
+      </c>
+      <c r="B727" t="s">
+        <v>744</v>
+      </c>
+      <c r="C727" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="4">
+        <v>727</v>
+      </c>
+      <c r="B728" t="s">
+        <v>806</v>
+      </c>
+      <c r="C728" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="4">
+        <v>728</v>
+      </c>
+      <c r="B729" t="s">
+        <v>920</v>
+      </c>
+      <c r="C729" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="4">
+        <v>729</v>
+      </c>
+      <c r="B730" t="s">
+        <v>976</v>
+      </c>
+      <c r="C730" s="9" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="4">
+        <v>730</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C731" s="9" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="4">
+        <v>731</v>
+      </c>
+      <c r="B732" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C732" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="4">
+        <v>732</v>
+      </c>
+      <c r="B733" t="s">
+        <v>736</v>
+      </c>
+      <c r="C733" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="4">
+        <v>733</v>
+      </c>
+      <c r="B734" t="s">
+        <v>853</v>
+      </c>
+      <c r="C734" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="4">
+        <v>734</v>
+      </c>
+      <c r="B735" t="s">
+        <v>951</v>
+      </c>
+      <c r="C735" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="4">
+        <v>735</v>
+      </c>
+      <c r="B736" t="s">
+        <v>987</v>
+      </c>
+      <c r="C736" s="9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="4">
+        <v>736</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C737" s="10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="4">
+        <v>737</v>
+      </c>
+      <c r="B738" t="s">
+        <v>964</v>
+      </c>
+      <c r="C738" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="4">
+        <v>738</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C739" s="10" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="4">
+        <v>739</v>
+      </c>
+      <c r="B740" t="s">
+        <v>968</v>
+      </c>
+      <c r="C740" s="9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="4">
+        <v>740</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C741" s="10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="4">
+        <v>741</v>
+      </c>
+      <c r="B742" t="s">
+        <v>773</v>
+      </c>
+      <c r="C742" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="4">
+        <v>742</v>
+      </c>
+      <c r="B743" t="s">
+        <v>775</v>
+      </c>
+      <c r="C743" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="4">
+        <v>743</v>
+      </c>
+      <c r="B744" t="s">
+        <v>921</v>
+      </c>
+      <c r="C744" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" s="4">
+        <v>744</v>
+      </c>
+      <c r="B745" t="s">
+        <v>875</v>
+      </c>
+      <c r="C745" s="9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" s="4">
+        <v>745</v>
+      </c>
+      <c r="B746" t="s">
+        <v>705</v>
+      </c>
+      <c r="C746" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" s="4">
+        <v>746</v>
+      </c>
+      <c r="B747" t="s">
+        <v>794</v>
+      </c>
+      <c r="C747" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" s="4">
+        <v>747</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C748" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" s="4">
+        <v>748</v>
+      </c>
+      <c r="B749" t="s">
+        <v>832</v>
+      </c>
+      <c r="C749" s="9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" s="4">
+        <v>749</v>
+      </c>
+      <c r="B750" t="s">
+        <v>801</v>
+      </c>
+      <c r="C750" s="9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="4">
+        <v>750</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C751" s="9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="4">
+        <v>751</v>
+      </c>
+      <c r="B752" t="s">
+        <v>719</v>
+      </c>
+      <c r="C752" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753" s="4">
+        <v>752</v>
+      </c>
+      <c r="B753" t="s">
+        <v>727</v>
+      </c>
+      <c r="C753" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754" s="4">
+        <v>753</v>
+      </c>
+      <c r="B754" t="s">
+        <v>728</v>
+      </c>
+      <c r="C754" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755" s="4">
+        <v>754</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C755" s="9" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756" s="4">
+        <v>755</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C756" s="10" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757" s="4">
+        <v>756</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C757" s="10" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758" s="4">
+        <v>757</v>
+      </c>
+      <c r="B758" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C758" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759" s="4">
+        <v>758</v>
+      </c>
+      <c r="B759" t="s">
+        <v>957</v>
+      </c>
+      <c r="C759" s="9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760" s="4">
+        <v>759</v>
+      </c>
+      <c r="B760" t="s">
+        <v>999</v>
+      </c>
+      <c r="C760" s="9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761" s="4">
+        <v>760</v>
+      </c>
+      <c r="B761" t="s">
+        <v>839</v>
+      </c>
+      <c r="C761" s="9" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762" s="4">
+        <v>761</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C762" s="10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763" s="4">
+        <v>762</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C763" s="10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764" s="4">
+        <v>763</v>
+      </c>
+      <c r="B764" t="s">
+        <v>877</v>
+      </c>
+      <c r="C764" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765" s="4">
+        <v>764</v>
+      </c>
+      <c r="B765" t="s">
+        <v>709</v>
+      </c>
+      <c r="C765" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766" s="4">
+        <v>765</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C766" s="9" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767" s="4">
+        <v>766</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C767" s="10" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768" s="4">
+        <v>767</v>
+      </c>
+      <c r="B768" t="s">
+        <v>996</v>
+      </c>
+      <c r="C768" s="9" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769" s="4">
+        <v>768</v>
+      </c>
+      <c r="B769" t="s">
+        <v>795</v>
+      </c>
+      <c r="C769" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770" s="4">
+        <v>769</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C770" s="10" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771" s="4">
+        <v>770</v>
+      </c>
+      <c r="B771" t="s">
+        <v>994</v>
+      </c>
+      <c r="C771" s="9" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772" s="4">
+        <v>771</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C772" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773" s="4">
+        <v>772</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C773" s="10" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774" s="4">
+        <v>773</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C774" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775" s="4">
+        <v>774</v>
+      </c>
+      <c r="B775" t="s">
+        <v>966</v>
+      </c>
+      <c r="C775" s="9" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776" s="4">
+        <v>775</v>
+      </c>
+      <c r="B776" t="s">
+        <v>822</v>
+      </c>
+      <c r="C776" s="9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777" s="4">
+        <v>776</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C777" s="10" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778" s="4">
+        <v>777</v>
+      </c>
+      <c r="B778" t="s">
+        <v>879</v>
+      </c>
+      <c r="C778" s="9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779" s="4">
+        <v>778</v>
+      </c>
+      <c r="B779" t="s">
+        <v>818</v>
+      </c>
+      <c r="C779" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780" s="4">
+        <v>779</v>
+      </c>
+      <c r="B780" t="s">
+        <v>919</v>
+      </c>
+      <c r="C780" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781" s="4">
+        <v>780</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C781" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782" s="4">
+        <v>781</v>
+      </c>
+      <c r="B782" t="s">
+        <v>799</v>
+      </c>
+      <c r="C782" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783" s="4">
+        <v>782</v>
+      </c>
+      <c r="B783" t="s">
+        <v>759</v>
+      </c>
+      <c r="C783" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784" s="4">
+        <v>783</v>
+      </c>
+      <c r="B784" t="s">
+        <v>825</v>
+      </c>
+      <c r="C784" s="9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785" s="4">
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C785" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786" s="4">
+        <v>785</v>
+      </c>
+      <c r="B786" t="s">
+        <v>734</v>
+      </c>
+      <c r="C786" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787" s="4">
+        <v>786</v>
+      </c>
+      <c r="B787" t="s">
+        <v>868</v>
+      </c>
+      <c r="C787" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788" s="4">
+        <v>787</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C788" s="10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789" s="4">
+        <v>788</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C789" s="10" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790" s="4">
+        <v>789</v>
+      </c>
+      <c r="B790" t="s">
+        <v>882</v>
+      </c>
+      <c r="C790" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791" s="4">
+        <v>790</v>
+      </c>
+      <c r="B791" t="s">
+        <v>873</v>
+      </c>
+      <c r="C791" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792" s="4">
+        <v>791</v>
+      </c>
+      <c r="B792" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C792" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793" s="4">
+        <v>792</v>
+      </c>
+      <c r="B793" t="s">
+        <v>777</v>
+      </c>
+      <c r="C793" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794" s="4">
+        <v>793</v>
+      </c>
+      <c r="B794" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C794" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795" s="4">
+        <v>794</v>
+      </c>
+      <c r="B795" t="s">
+        <v>935</v>
+      </c>
+      <c r="C795" s="9" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796" s="4">
+        <v>795</v>
+      </c>
+      <c r="B796" t="s">
+        <v>763</v>
+      </c>
+      <c r="C796" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797" s="4">
+        <v>796</v>
+      </c>
+      <c r="B797" t="s">
+        <v>929</v>
+      </c>
+      <c r="C797" s="9" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798" s="4">
+        <v>797</v>
+      </c>
+      <c r="B798" t="s">
+        <v>707</v>
+      </c>
+      <c r="C798" s="9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799" s="4">
+        <v>798</v>
+      </c>
+      <c r="B799" t="s">
+        <v>937</v>
+      </c>
+      <c r="C799" s="9" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800" s="4">
+        <v>799</v>
+      </c>
+      <c r="B800" t="s">
+        <v>939</v>
+      </c>
+      <c r="C800" s="9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801" s="5">
+        <v>800</v>
+      </c>
+      <c r="B801" t="s">
+        <v>767</v>
+      </c>
+      <c r="C801" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B475:C801">
+    <sortCondition ref="C475:C801"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/text/jxu.xlsx
+++ b/text/jxu.xlsx
@@ -4410,7 +4410,7 @@
   <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B476" sqref="B476"/>
+      <selection activeCell="B469" sqref="B469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
